--- a/data/matchdata.xlsx
+++ b/data/matchdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acidi\OneDrive\Desktop\cricket-Team-Helper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acidi\OneDrive\Documents\GitHub\cricketTeamHelper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233079DF-3D3A-4794-8811-96508C068FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FEF604-2349-4D9F-8EA0-123C6D7700E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{AF556C72-3ADC-4407-9FDD-FF76BDF22A24}"/>
   </bookViews>
@@ -1461,7 +1461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF190F-296C-4647-97BF-C1710144246E}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2998,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>

--- a/data/matchdata.xlsx
+++ b/data/matchdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acidi\OneDrive\Documents\GitHub\cricketTeamHelper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FEF604-2349-4D9F-8EA0-123C6D7700E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6BCB88-45A7-4484-9F89-4CE24510E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{AF556C72-3ADC-4407-9FDD-FF76BDF22A24}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="56">
   <si>
     <t>match_id</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>extras</t>
+  </si>
+  <si>
+    <t>LeatherWillow</t>
+  </si>
+  <si>
+    <t>Mohan Oval</t>
+  </si>
+  <si>
+    <t>left_arm_offspin</t>
+  </si>
+  <si>
+    <t>run_out</t>
+  </si>
+  <si>
+    <t>left_arm_fast</t>
   </si>
 </sst>
 </file>
@@ -577,21 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B51E0-D94A-4EAE-9874-31A5D3CDC862}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.1328125" customWidth="1"/>
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.06640625" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
-    <col min="7" max="7" width="18.06640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="4" max="5" width="18.46484375" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -622,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -634,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -642,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -654,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -674,7 +688,87 @@
         <v>8</v>
       </c>
       <c r="F4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903510AC-D80B-4F32-A8B5-605E107B0E6F}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -697,7 +791,7 @@
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="5.46484375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.796875" customWidth="1"/>
     <col min="9" max="9" width="26.53125" style="3" customWidth="1"/>
   </cols>
@@ -736,28 +830,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -768,10 +862,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -780,10 +874,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -791,28 +888,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H4">
         <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -820,103 +911,106 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H5">
         <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
       <c r="D8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -924,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -939,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -953,28 +1047,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -982,13 +1070,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1000,10 +1088,10 @@
         <v>26</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -1011,141 +1099,132 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>41</v>
@@ -1153,16 +1232,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1174,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>41</v>
@@ -1182,45 +1261,45 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1228,8 +1307,14 @@
       <c r="F19">
         <v>0</v>
       </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H19">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1237,28 +1322,28 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1266,28 +1351,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -1295,13 +1374,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1310,105 +1389,105 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="H24">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1417,38 +1496,843 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="H27">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>33</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>8</v>
       </c>
     </row>
@@ -1459,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF190F-296C-4647-97BF-C1710144246E}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1470,7 +2354,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="18.1328125" customWidth="1"/>
     <col min="3" max="3" width="17.796875" customWidth="1"/>
-    <col min="4" max="5" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="18.46484375" customWidth="1"/>
     <col min="7" max="7" width="18.19921875" customWidth="1"/>
   </cols>
@@ -1506,22 +2390,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1532,19 +2416,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1558,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1584,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1593,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1610,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1625,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1642,19 +2526,19 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1662,16 +2546,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1688,16 +2572,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1714,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1740,13 +2624,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1758,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1766,16 +2650,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1784,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1792,22 +2676,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1821,16 +2705,16 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1844,13 +2728,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1870,22 +2754,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1899,13 +2783,13 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1919,22 +2803,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1945,22 +2829,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1971,16 +2855,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1997,19 +2881,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2023,16 +2907,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2041,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2049,42 +2933,42 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2093,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2101,19 +2985,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2127,25 +3011,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2153,16 +3037,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2171,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2194,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2205,25 +3089,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2231,48 +3115,48 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2283,22 +3167,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2309,19 +3193,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2330,30 +3214,30 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2361,16 +3245,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2387,16 +3271,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2405,33 +3289,33 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2439,25 +3323,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2465,42 +3349,42 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2509,30 +3393,30 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2543,13 +3427,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -2558,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2569,19 +3453,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2590,108 +3474,108 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2699,22 +3583,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2725,45 +3609,45 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2777,16 +3661,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2795,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2803,16 +3687,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2821,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2829,51 +3713,51 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2881,39 +3765,39 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -2925,33 +3809,33 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2959,19 +3843,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2980,84 +3864,1020 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
         <v>35</v>
       </c>
-      <c r="C61">
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77">
         <v>20</v>
       </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>0</v>
       </c>
     </row>

--- a/data/matchdata.xlsx
+++ b/data/matchdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acidi\OneDrive\Documents\GitHub\cricketTeamHelper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6BCB88-45A7-4484-9F89-4CE24510E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE163444-8BCC-4685-A781-9A5D77770274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{AF556C72-3ADC-4407-9FDD-FF76BDF22A24}"/>
   </bookViews>

--- a/data/matchdata.xlsx
+++ b/data/matchdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acidi\OneDrive\Documents\GitHub\cricketTeamHelper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE163444-8BCC-4685-A781-9A5D77770274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805FCBB-E223-4B24-A22A-DEF86307ED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{AF556C72-3ADC-4407-9FDD-FF76BDF22A24}"/>
   </bookViews>
@@ -2346,7 +2346,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2656,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>4</v>

--- a/data/matchdata.xlsx
+++ b/data/matchdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acidi\OneDrive\Documents\GitHub\cricketTeamHelper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805FCBB-E223-4B24-A22A-DEF86307ED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57AFD3-20ED-461B-8224-D7478076596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{AF556C72-3ADC-4407-9FDD-FF76BDF22A24}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="57">
   <si>
     <t>match_id</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>left_arm_fast</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -780,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903510AC-D80B-4F32-A8B5-605E107B0E6F}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2343,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF190F-296C-4647-97BF-C1710144246E}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2803,22 +2806,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2829,25 +2832,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2855,16 +2858,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2873,24 +2876,24 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2902,12 +2905,12 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -2916,16 +2919,16 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2933,25 +2936,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2959,25 +2962,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2985,10 +2988,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2997,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3006,12 +3009,12 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -3020,16 +3023,16 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3037,7 +3040,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
@@ -3046,33 +3049,33 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3084,38 +3087,38 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -3124,16 +3127,16 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3141,22 +3144,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -3176,16 +3179,16 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -3202,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3219,19 +3222,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>17</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3240,24 +3243,24 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>18</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3266,21 +3269,21 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>19</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3297,77 +3300,61 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3375,16 +3362,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3393,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3401,51 +3388,51 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3453,68 +3440,68 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3526,15 +3513,15 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -3543,91 +3530,91 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3635,48 +3622,48 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
         <v>13</v>
       </c>
-      <c r="D50">
-        <v>11</v>
-      </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3687,51 +3674,51 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3739,17 +3726,17 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
         <v>17</v>
       </c>
-      <c r="D54">
-        <v>14</v>
-      </c>
       <c r="E54">
         <v>1</v>
       </c>
@@ -3757,79 +3744,53 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55">
-        <v>18</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3843,16 +3804,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3861,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3869,16 +3830,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3887,59 +3848,59 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -3947,22 +3908,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3973,25 +3934,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3999,19 +3960,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4025,42 +3986,42 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4069,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4077,25 +4038,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4103,77 +4064,77 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4181,16 +4142,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4202,21 +4163,21 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4225,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4233,16 +4194,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4251,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4259,45 +4220,45 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4311,16 +4272,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4329,24 +4290,24 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>35</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4355,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4363,16 +4324,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4381,33 +4342,33 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4415,25 +4376,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4441,22 +4402,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
         <v>7</v>
       </c>
-      <c r="B81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
       <c r="E81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -4467,25 +4428,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
         <v>7</v>
       </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
       <c r="D82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4493,25 +4454,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4519,16 +4480,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4537,24 +4498,24 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4571,13 +4532,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -4586,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -4597,45 +4558,45 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
         <v>11</v>
       </c>
-      <c r="D88">
-        <v>8</v>
-      </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4649,22 +4610,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4675,16 +4636,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4693,59 +4654,59 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
         <v>7</v>
       </c>
-      <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91">
-        <v>14</v>
-      </c>
-      <c r="D91">
-        <v>14</v>
-      </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4753,16 +4714,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4779,16 +4740,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4797,30 +4758,30 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4831,22 +4792,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -4857,27 +4818,1015 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102">
         <v>7</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
         <v>23</v>
       </c>
-      <c r="C97">
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109">
+        <v>14</v>
+      </c>
+      <c r="D109">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115">
         <v>20</v>
       </c>
-      <c r="D97">
-        <v>4</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>7</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>14</v>
+      </c>
+      <c r="D129">
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>16</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>17</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133">
+        <v>18</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>20</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>0</v>
       </c>
     </row>
